--- a/assets/csv/test1.xlsx
+++ b/assets/csv/test1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>product_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -189,10 +189,6 @@
   </si>
   <si>
     <t>BC02.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BC02_back.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -528,7 +524,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -629,9 +625,6 @@
       <c r="C3" t="s">
         <v>32</v>
       </c>
-      <c r="D3" t="s">
-        <v>33</v>
-      </c>
       <c r="G3" t="s">
         <v>25</v>
       </c>

--- a/assets/csv/test1.xlsx
+++ b/assets/csv/test1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>product_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -145,10 +145,6 @@
 ● Octopus series velcro, it can increase 10% peel and shear strengths in    
 water
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>**test no BR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -524,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="H3" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.6"/>
@@ -588,16 +584,16 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
         <v>28</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>29</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>30</v>
-      </c>
-      <c r="F2" t="s">
-        <v>31</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -623,19 +619,16 @@
         <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.6">

--- a/assets/csv/test1.xlsx
+++ b/assets/csv/test1.xlsx
@@ -97,35 +97,6 @@
     <t>Basic BC Jacket (BC01)</t>
   </si>
   <si>
-    <t xml:space="preserve">● Heavy duty 420 Denier bladder material for superior strength and durability. &lt;br/&gt;
-● EVA soft backpad and pockets/shoulder made of 840/600 denier Nylon&lt;br/&gt;
-● Duraflex buckles.&lt;br/&gt;
-● Octopus series velcro, it can increase 10% peel and shear strengths in water.&lt;br/&gt;
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">● Wrap around design, no compression on torso&lt;br/&gt;
-● 3 deflation systems, 2 OPVs and 1 exhaust valve in the corrugated hose&lt;br/&gt;
-● 2 plastic 1.5” D-ring on shoulder, 4 plastic D-ring on pockets&lt;br/&gt;
-● 2 big side pockets, with adjustable Velcro closure for accommodating goods&lt;br/&gt;
-● Adjustable cummerbund 4 inch width, ensures snug fit at any depth.&lt;br/&gt;
-● Adjustable shoulder strap with 1.5" side quick release buckle.&lt;br/&gt;
-● Adjustable sternal strap with 1" double adjustable buckle.&lt;br/&gt;
-● Adjustable waist strap with 1.5＂double adjustable buckle.&lt;br/&gt;
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Available sizes and lift capacity:&lt;br/&gt;
-&lt;br/&gt;
-Size   XXS   XS     S      M      L      XL    XXL &lt;br/&gt;
-KG     7.2    9.2   10.2  15.3  16.3   18.3   18.3&lt;br/&gt;
-LB      16     20    22    34     36     40     40&lt;br/&gt;
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sample subtitle</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -185,6 +156,34 @@
   </si>
   <si>
     <t>BC02.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">● Heavy duty 420 Denier bladder material for superior strength and durability.
+● EVA soft backpad and pockets/shoulder made of 840/600 denier Nylon
+● Duraflex buckles.
+● Octopus series velcro, it can increase 10% peel and shear strengths in water.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">● Wrap around design, no compression on torso
+● 3 deflation systems, 2 OPVs and 1 exhaust valve in the corrugated hose
+● 2 plastic 1.5” D-ring on shoulder, 4 plastic D-ring on pockets
+● 2 big side pockets, with adjustable Velcro closure for accommodating goods
+● Adjustable cummerbund 4 inch width, ensures snug fit at any depth.
+● Adjustable shoulder strap with 1.5" side quick release buckle.
+● Adjustable sternal strap with 1" double adjustable buckle.
+● Adjustable waist strap with 1.5＂double adjustable buckle.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Available sizes and lift capacity:
+Size   XXS   XS     S      M      L      XL    XXL 
+KG     7.2    9.2   10.2  15.3  16.3   18.3   18.3
+LB      16     20    22    34     36     40     40
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -520,7 +519,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H3" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
@@ -536,6 +535,7 @@
     <col min="8" max="8" width="20.5234375" customWidth="1"/>
     <col min="9" max="9" width="39.734375" customWidth="1"/>
     <col min="10" max="10" width="33.83984375" customWidth="1"/>
+    <col min="11" max="11" width="20.68359375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.6">
@@ -576,7 +576,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="86.1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:12" ht="310.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -584,31 +584,31 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
         <v>27</v>
       </c>
-      <c r="D2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F2" t="s">
+      <c r="J2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="297" x14ac:dyDescent="0.6">
@@ -616,19 +616,19 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.6">

--- a/assets/csv/test1.xlsx
+++ b/assets/csv/test1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\migni\Desktop\aquasports\startbootstrap-agency-gh-pages\startbootstrap-agency-gh-pages\aquasports\assets\csv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\migle\Downloads\test\aquasports\assets\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF840DCC-750B-43FD-8114-3562AA1D5BD8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9606"/>
+    <workbookView xWindow="9930" yWindow="3480" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="135">
   <si>
     <t>product_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,10 +60,6 @@
   </si>
   <si>
     <t>feature</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>size</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -143,18 +140,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BC01_back.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BC01_right.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BC01-left.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BC02.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -186,23 +171,497 @@
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Basic BC Jacket (BC03)</t>
+  </si>
+  <si>
+    <t>Basic BC Jacket (BC04)</t>
+  </si>
+  <si>
+    <t>BC03.jpg</t>
+  </si>
+  <si>
+    <t>BC04.jpg</t>
+  </si>
+  <si>
+    <t>BC05.jpg</t>
+  </si>
+  <si>
+    <t>BC01_1.jpg</t>
+  </si>
+  <si>
+    <t>BC01-3.jpg</t>
+  </si>
+  <si>
+    <t>BC01_2.jpg</t>
+  </si>
+  <si>
+    <t>BC02_1.jpg</t>
+  </si>
+  <si>
+    <t>BC02_2.jpg</t>
+  </si>
+  <si>
+    <t>BC03_3.jpg</t>
+  </si>
+  <si>
+    <t>BC02_3.jpg</t>
+  </si>
+  <si>
+    <t>BC03_1.jpg</t>
+  </si>
+  <si>
+    <t>BC03_2.jpg</t>
+  </si>
+  <si>
+    <t>BC04_1.jpg</t>
+  </si>
+  <si>
+    <t>BC04_2.jpg</t>
+  </si>
+  <si>
+    <t>BC04_3.jpg</t>
+  </si>
+  <si>
+    <t>BC05_1.jpg</t>
+  </si>
+  <si>
+    <t>BC05_2.jpg</t>
+  </si>
+  <si>
+    <t>BC05_3.jpg</t>
+  </si>
+  <si>
+    <t>● Heavy duty 1000 Denier bladder material for superior strength and durability
+● Pockets and shoulder made of 840 denier nylon
+● YKK Zipper
+● Duraflex buckle.
+● Octopus series velcro, it can increase 10% peel and shear strengths in water.</t>
+  </si>
+  <si>
+    <t>● Wrap around design, no compression on torso 
+● 3 deflation systems, 2 OPVs and 1 exhaust valve in the corrugated hose
+● Weight-integrated with quick releasable weight pocket, 10 lbs each side.
+● 2 stainless steel D-ring on shoulder, 4 stainless steel D-ring on pockets.
+● 2 self-draining expandable side pockets, with high-impact YKK zip and zipper-puller
+● Adjustable cummerbund ensures snug fit at any depth.
+● With a soft backpad, getting a comfortable fit.</t>
+  </si>
+  <si>
+    <t>Available sizes and lift capacity:
+Size   XXS   XS     S      M      L      XL    XXL 
+KG     7.2    9.2   10.2  15.3  16.3   18.3   18.3
+LB      16     20    22    34     36     40     40</t>
+  </si>
+  <si>
+    <t>● Heavy duty 420 Denier bladder material for superior strength and durability
+● Pockets and shoulder made of 840 denier nylon
+● YKK Zipper
+● Duraflex buckle.
+● Octopus series velcro, it can increase 10% peel and shear strengths in water.</t>
+  </si>
+  <si>
+    <t>● Wrap around design, no compression on torso 
+● 3 deflation systems, 2 OPVs and 1 exhaust valve in the corrugated hose
+● Weight-integrated with quick releasable weight pocket, 10 lbs each side.
+● 2 stainless steel D-ring on shoulder, 4 stainless steel D-ring on pockets.
+● 2 self-draining expandable side pockets, with high-impact YKK zip and zipper-puller
+● Adjustable cummerbund ensures snug fit at any depth.
+● With a soft backpad, getting a comfortable fit.
+● Non dumpable weight pouch: 2 rear pockets with adjustable buckle closure for accommodating fixed weights,useful for improving the diver's underwater swimming position.
+● Adjustable shoulder strap with 2" side quick release buckle.
+● Adjustable sternal strap with 1" double adjustable buckle. 
+● Adjustable waist strap with 2＂double adjustable buckle.</t>
+  </si>
+  <si>
+    <t>Available sizes and lift capacity:
+Size    XS     S     M     L    XL    XXL 
+KG       12    14   16    20   23    23
+LB        26    30   35    44   50    50</t>
+  </si>
+  <si>
+    <t>Travel BC Jacket (BC05)</t>
+  </si>
+  <si>
+    <t>● Heavy duty 420 Denier bladder material for superior strength and durability
+● Pockets and shoulder made of 500 denier nylon
+● Duraflex buckle.
+● Octopus series velcro, it can increase 10% peel and shear strengths in water.</t>
+  </si>
+  <si>
+    <t>● Weight only 5.5 lbs, very easy to pack.
+● Back pack style shoulder, achieving a comfortable fit
+● 3 deflation systems, 2 OPVs and 1 exhaust valve in the corrugated hose
+● Weight-integrated with quick releasable weight pocket, 10 lbs each side.
+● 2 stainless steel D-ring on shoulder, 4 plastic D-ring on pockets
+● Elastic rope can help to make the bladder compact once deflated. 
+● With a soft backpad, getting a comfortable fit.
+● Non dumpable weight pouch: 2 rear pockets with 1” adjustable buckle for accommodating fixed weights,useful for improving the diver's underwater swimming position
+● Adjustable shoulder strap with 1.5" side quick release buckle
+● Adjustable sternal strap with 1" double adjustable buckle
+● Adjustable waist strap with 1.5＂double adjustable buckle.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Available sizes and lift capacity:
+Size    XS/S     M/L    XL/XXL   
+KG       13.5    13.5    13.5   
+LB         30      30      30    </t>
+  </si>
+  <si>
+    <t>23 lbs sidemount system</t>
+  </si>
+  <si>
+    <t>23lbs_sidemount</t>
+  </si>
+  <si>
+    <t>23lbs_sidemount.jpg</t>
+  </si>
+  <si>
+    <t>23lbs_sidemount_1.jpg</t>
+  </si>
+  <si>
+    <t>25lbs_sidemount</t>
+  </si>
+  <si>
+    <t>25 lbs sidemount system</t>
+  </si>
+  <si>
+    <t>25lbs_sidemount.jpg</t>
+  </si>
+  <si>
+    <t>25lbs_sidemount_1.jpg</t>
+  </si>
+  <si>
+    <t>● 1000 Denier nylon non-fade TPU material for bladder
+● Stainless steel D-rings and hardware.</t>
+  </si>
+  <si>
+    <t>● The lowest profile streamlined BC, provide maximum balance and ideal trim control, move through the water easier and more efficiently.
+● Modular approach lets you build a system to suit your individual diving style.
+● Harness system is fully adjustable so you can dial in the perfect fit.
+● 4 stainless steel 50mm D-rings on shoulder and 2 stainless steel 50mm D-ring on the waist band, 2 stainless steel 50mm D-ring on the bottom of the bladder.
+● Two pcs 5 lbs Non dumpable weight pouches
+● Include a 50 mm wide crotch strap for added stability and security.
+● Specific elbow and side bungees help keep your dive profile streamlined.
+● Inner located elbow to avoid overhead interference
+● Includes a sternum strap with 1" double adjustable buckle
+● 2 tank bands with Stainless steel Cam buckle
+● 2 Stainless steel Bolt snaps and line.
+● One size fits most.
+● Lift Capacity: 23 lbs</t>
+  </si>
+  <si>
+    <t>● 420 Denier nylon non-fade TPU material for bladder
+● 1000D Cordura/1680 Denier nylon non-fade material for outer bag
+● Stainless steel D-rings and hardware</t>
+  </si>
+  <si>
+    <t>● The lowest profile streamlined BC, provide maximum balance and ideal trim control, move through the water easier and more efficiently.
+● Modular approach lets you build a system to suit your individual diving style.
+● Harness system is fully adjustable so you can dial in the perfect fit.
+● Comfort back pad with perfect lumbar support
+● 4 stainless steel 50mm D-rings on shoulder and 2 stainless steel 50mm D-ring on the waist band
+● Include a 50 mm wide crotch strap for added stability and security.
+● Specific elbow and side bungees help keep your dive profile streamlined.
+● Inner located elbow to avoid overhead interference
+● 2 tank bands with Stainless steel Cam buckle
+● 2 Stainless steel Bolt snaps and line.
+● One size fits all.
+● Lift Capacity: 25 lbs</t>
+  </si>
+  <si>
+    <t>Basic Tech BC system</t>
+  </si>
+  <si>
+    <t>Basic_tech_BC_system</t>
+  </si>
+  <si>
+    <t>Deluxe tech BC system</t>
+  </si>
+  <si>
+    <t>Deluxe_tech_BC_system</t>
+  </si>
+  <si>
+    <t>Deluxe_tech_BC_system.jpg</t>
+  </si>
+  <si>
+    <t>Basic_tech_BC_system.jpg</t>
+  </si>
+  <si>
+    <t>Basic_tech_BC_system_1.jpg</t>
+  </si>
+  <si>
+    <t>Deluxe_tech_BC_system_1.jpg</t>
+  </si>
+  <si>
+    <t>● 1000D CORDURA/1680D nylon non-fade outer bag .
+● 420D inner bladder material,solution dye.
+● YKK zipper.
+● 304/316 Stainless steel backplate.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">● Continuous webbing harness with stainless steel back plate for optimal stability
+● Two shoulder D-rings and one waist stainless steel D-ring on the left side.
+● 50mm wide crotch strap with two stainless steel D-rings.
+● Single Tank system and two tank straps with stainless steel cam buckle.
+● Streamlined, prevents unnecessary drag and minimizes swimming effort.
+● Perfect fit for all divers and diving systems.
+● Storage pack provides storage for alternate lift and signaling devices.
+● Rear over-pressure valve, makes it effortless to vent gas during the dive.
+● Small toggle on over-pressure valve makes it easy to locate, even with thick coldwater gloves.
+● Circular wing design almost completely eliminates gas being trapped on either side of the wing.
+● Easily replaceable bladder.
+● Lift Capacity: 22 lbs / 30 lbs / 40 lbs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Available sizes and lift capacity:
+Size    22 lbs    30 lbs    40 lbs  
+KG       10       13.5     18   
+LB        22        30      40    </t>
+  </si>
+  <si>
+    <t>● 1000D CORDURA/1680D nylon non-fade outer bag .
+● 420D inner bladder material solution dye
+● YKK zipper.
+● 304/316 Stainless steel backplate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">● Streamlined modular harness system, prevents unnecessary drag and minimizes swimming effort.
+● Comfort back pad with perfect lumbar support
+● 4 stainless steel 50mm D-rings on shoulder and 2 stainless steel 50mm D-ring on the waist band
+● Adjustable sternum strap with 2 mounting positions
+● Adjustable padded shoulder straps with over-sized quick release buckles
+● Stainless steel single tank adaptor with 2 cam bands
+● 2 dumpable weight pouch: 5 lbs weight pockets each side with 1.5” adjustable buckle closure
+● 50mm wide crotch strap with two stainless steel D-rings.
+● Rear over-pressure valve, makes it effortless to vent gas during the dive.
+● Small toggle on over-pressure valve makes it easy to locate, even with thick coldwater gloves.
+● Circular wing design almost completely eliminates gas being trapped on either side of the wing.
+● Easily replaceable bladder.
+● Lift Capacity: 22 lbs / 30 lbs / 40 lbs </t>
+  </si>
+  <si>
+    <t>Donut_wing_double</t>
+  </si>
+  <si>
+    <t>Donut_wing_single</t>
+  </si>
+  <si>
+    <t>Donut wing for double tank</t>
+  </si>
+  <si>
+    <t>Donut wing for single tank</t>
+  </si>
+  <si>
+    <t>Donut_wing_double.jpg</t>
+  </si>
+  <si>
+    <t>Donut_wing_single.jpg</t>
+  </si>
+  <si>
+    <t>Donut_wing_double_1.jpg</t>
+  </si>
+  <si>
+    <t>Donut_wing_single_1.jpg</t>
+  </si>
+  <si>
+    <t>● 1000D CORDURA/1680D nylon non-fade outer bag .
+● Heavy duty 420 Denier non-fade bladder material</t>
+  </si>
+  <si>
+    <t>● This donut shape and internal design make you can always expect unparalleled buoyancy control regardless of your diving position.
+● 2” nylon webbing with stainless steel grommets, durable to screwed with harness/ back plate.
+● Centrally located elbow to avoid tank valve/regulator interference.
+● Corrugated hose, available in different length: 13”, 16” and 19”.
+● “K” style power inflator
+● Lift Capacity: 40 lbs / 60 lbs 
+● Available color: black/red/pink/orange/blue/yellow/gray/ camouflage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Available sizes and lift capacity:
+ Size    40 lbs    60 lbs  
+KG       18       27    
+LB      40       60    </t>
+  </si>
+  <si>
+    <t>● This donut shape and internal design make you can always expect unparalleled buoyancy control regardless of your diving position.
+● 2” nylon webbing with stainless steel grommets, durable to screwed with harness/ back plate.
+● Webbing handle on top for hold.
+● Corrugated hose, available in different length: 13”, 16” and 19”.
+● “K” style power inflator
+● Lift Capacity: 22 lbs / 30 lbs / 40 lbs 
+● Available color: black/red/pink/orange/blue/yellow/gray/ camouflage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Available sizes and lift capacity:
+ Size    22 lbs    30 lbs    40 lbs  
+KG       10       13.5     18   
+LB        22        30      40    </t>
+  </si>
+  <si>
+    <t>Snorkel jacket</t>
+  </si>
+  <si>
+    <t>Snorkel_jacket</t>
+  </si>
+  <si>
+    <t>● 210 Denier nylon lamination TPU material for bladder</t>
+  </si>
+  <si>
+    <t>● Adjustable sternal strap
+● Adjustable waist strap
+● Two side mesh pockets
+● Easy oral inflator
+● Available size: kids, adult
+● Available color: neon orange/neon yellow/blue/pink/black/yellow</t>
+  </si>
+  <si>
+    <t>Snorkel_vest</t>
+  </si>
+  <si>
+    <t>Snorkel vest</t>
+  </si>
+  <si>
+    <t>Snorkel_jacket.jpg</t>
+  </si>
+  <si>
+    <t>Snorkel_jacket_1.jpg</t>
+  </si>
+  <si>
+    <t>Snorkel_jacket_2.jpg</t>
+  </si>
+  <si>
+    <t>Snorkel_vest.jpg</t>
+  </si>
+  <si>
+    <t>Snorkel_vest_1.jpg</t>
+  </si>
+  <si>
+    <t>Snorkel_vest_2.jpg</t>
+  </si>
+  <si>
+    <t>● Crotch strap
+● Quick release adjustable buckle
+● Easy oral inflator
+● Available size: kids, adult, X-Large
+● Available color: neon orange/neon yellow/blue/pink/black/yellow</t>
+  </si>
+  <si>
+    <t>neon orange/neon yellow/blue/pink/black/yellow</t>
+  </si>
+  <si>
+    <t>kids, adult, X-Large</t>
+  </si>
+  <si>
+    <t>kids, adult</t>
+  </si>
+  <si>
+    <t>SMB 01, closed bottom</t>
+  </si>
+  <si>
+    <t>SMB01</t>
+  </si>
+  <si>
+    <t>SMB01.jpg</t>
+  </si>
+  <si>
+    <t>● 210D nylon with TPU, polyether</t>
+  </si>
+  <si>
+    <t>● Traditional signal tube, sealed on both ends
+● The velcro in the bottom can hold the tube when it is deflated and rolled.
+● A swivel clip is easy to attach to the BC.
+● 1 pcs 1” plastic D-ring.
+● Available size: 48”*5”, 72”*6”
+● Available color: neon orange/neon yellow/blue/pink/black/yellow</t>
+  </si>
+  <si>
+    <t>48”*5”, 72”*6”</t>
+  </si>
+  <si>
+    <t>SMB02</t>
+  </si>
+  <si>
+    <t>SMB03</t>
+  </si>
+  <si>
+    <t>SMB02.jpg</t>
+  </si>
+  <si>
+    <t>SMB03.jpg</t>
+  </si>
+  <si>
+    <t>SMB 02, open bottom</t>
+  </si>
+  <si>
+    <t>SMB 03, open bottom</t>
+  </si>
+  <si>
+    <t>● Over Pressure Release Valve
+● Duck-bill in bottom .
+● A swivel clip on the pocket is easy to attach to the BC.
+● The velcro in the bottom can hold the tube when it is deflated and rolled.
+● 1 pcs 1” SS D-ring and 1 pcs 1” plastic D-ring.
+● Available size: 54”*7”, 72”*6”
+● Available color: neon orange/neon yellow/blue/pink/black/yellow</t>
+  </si>
+  <si>
+    <t>54”*7”, 72”*6”</t>
+  </si>
+  <si>
+    <t>72”*5.5”</t>
+  </si>
+  <si>
+    <t>● Folded style
+● Over Pressure Release Valve
+● Duck-bill in bottom .
+● A swivel clip on the pocket is easy to attach to the BC.
+● The velcro in the bottom can hold the tube when it is deflated and rolled.
+● 2 pcs 1” SS D-rings
+● Available size: 72”*5.5”
+● Available color: neon orange/neon yellow/blue/pink/black/yellow</t>
+  </si>
+  <si>
+    <t>Lift_Bag</t>
+  </si>
+  <si>
+    <t>Lift Bag</t>
+  </si>
+  <si>
+    <t>Lift_Bag.jpg</t>
+  </si>
+  <si>
+    <t>● 210 Denier nylon with TPU</t>
+  </si>
+  <si>
+    <t>● Over Pressure Release Valve
+● Open bottom for inflating
+● Available size: 50 lbs and 120 lbs
+● Available color: neon orange/neon yellow/blue/pink/black/yellow</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>50 lbs and 120 lbs</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -239,7 +698,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -516,31 +975,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="11.68359375" customWidth="1"/>
-    <col min="2" max="2" width="20.734375" customWidth="1"/>
-    <col min="3" max="3" width="15.26171875" customWidth="1"/>
+    <col min="1" max="1" width="11.625" customWidth="1"/>
+    <col min="2" max="2" width="20.75" customWidth="1"/>
+    <col min="3" max="3" width="15.25" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="13.26171875" customWidth="1"/>
-    <col min="6" max="6" width="13.15625" customWidth="1"/>
-    <col min="7" max="7" width="17.1015625" customWidth="1"/>
-    <col min="8" max="8" width="20.5234375" customWidth="1"/>
-    <col min="9" max="9" width="39.734375" customWidth="1"/>
-    <col min="10" max="10" width="33.83984375" customWidth="1"/>
-    <col min="11" max="11" width="20.68359375" customWidth="1"/>
+    <col min="5" max="5" width="13.25" customWidth="1"/>
+    <col min="6" max="6" width="13.125" customWidth="1"/>
+    <col min="7" max="7" width="17.125" customWidth="1"/>
+    <col min="8" max="8" width="20.5" customWidth="1"/>
+    <col min="9" max="9" width="39.75" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
+    <col min="11" max="11" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -570,80 +1030,443 @@
         <v>8</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>133</v>
       </c>
       <c r="L1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="310.5" customHeight="1">
+      <c r="A2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="310.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="267.75">
+      <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="252">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="409.5">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="C5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="297" x14ac:dyDescent="0.6">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A5" t="s">
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="409.5">
+      <c r="A6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A6" t="s">
-        <v>16</v>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="409.5">
+      <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="393.75">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="393.75">
+      <c r="A9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="409.5">
+      <c r="A10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" t="s">
+        <v>77</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="252">
+      <c r="A11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" t="s">
+        <v>89</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="236.25">
+      <c r="A12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="110.25">
+      <c r="A13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" t="s">
+        <v>104</v>
+      </c>
+      <c r="G13" t="s">
+        <v>111</v>
+      </c>
+      <c r="H13" t="s">
+        <v>109</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="94.5">
+      <c r="A14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" t="s">
+        <v>106</v>
+      </c>
+      <c r="E14" t="s">
+        <v>107</v>
+      </c>
+      <c r="G14" t="s">
+        <v>110</v>
+      </c>
+      <c r="H14" t="s">
+        <v>109</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="157.5">
+      <c r="A15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" t="s">
+        <v>114</v>
+      </c>
+      <c r="G15" t="s">
+        <v>117</v>
+      </c>
+      <c r="H15" t="s">
+        <v>109</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="173.25">
+      <c r="A16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B16" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" t="s">
+        <v>120</v>
+      </c>
+      <c r="G16" t="s">
+        <v>125</v>
+      </c>
+      <c r="H16" t="s">
+        <v>109</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="173.25">
+      <c r="A17" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" t="s">
+        <v>123</v>
+      </c>
+      <c r="C17" t="s">
+        <v>121</v>
+      </c>
+      <c r="G17" t="s">
+        <v>126</v>
+      </c>
+      <c r="H17" t="s">
+        <v>109</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="78.75">
+      <c r="A18" t="s">
+        <v>128</v>
+      </c>
+      <c r="B18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" t="s">
+        <v>130</v>
+      </c>
+      <c r="G18" t="s">
+        <v>134</v>
+      </c>
+      <c r="H18" t="s">
+        <v>134</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/assets/csv/test1.xlsx
+++ b/assets/csv/test1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\migle\Downloads\test\aquasports\assets\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF840DCC-750B-43FD-8114-3562AA1D5BD8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3038ABA-FF6E-4E03-9E81-0F83CAC5E804}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9930" yWindow="3480" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1995" yWindow="2115" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="135">
   <si>
     <t>product_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -979,8 +979,8 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1456,9 +1456,6 @@
       <c r="C18" t="s">
         <v>130</v>
       </c>
-      <c r="G18" t="s">
-        <v>134</v>
-      </c>
       <c r="H18" t="s">
         <v>134</v>
       </c>

--- a/assets/csv/test1.xlsx
+++ b/assets/csv/test1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\migle\Downloads\test\aquasports\assets\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3038ABA-FF6E-4E03-9E81-0F83CAC5E804}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B6F13E-03F9-4699-A9AC-DDCAED7F5AEB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1995" yWindow="2115" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,6 +24,304 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>migle</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{A04F90F7-FBCC-4DC4-9094-679B84392E07}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>migle:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+固定網址/產品reference code,不能更改。與圖片的命名關聯。大小寫須一模一樣</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{9491646D-8138-477C-89B6-0763B45305AA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>migle:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+產品名, 目前大致以doc文件中的標題作為基準,盡量勿更改</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{3131F93F-7CFC-4C9F-AD7D-FE0E0AB91D17}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>migle:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+產品大圖, 圖片命名格式是固定的,若需換圖請提供檔名一樣的圖片 大小寫須一模一樣</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{EDC5D32A-31EB-4E79-ADBA-5D2E0133B410}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>migle:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+產品小圖左一, 圖片命名格式是固定的,若需換圖請提供檔名一樣的圖片 若空白則不顯示圖片</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{DAEAFDCF-7046-463E-B844-AC60C43622AF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>migle:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+產品小圖左二, 圖片命名格式是固定的,若需換圖請提供檔名一樣的圖片 若空白則不顯示圖片</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{C2E8F641-99BF-4D9A-9E90-5B4932B16B13}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>migle:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+產品小圖左三, 圖片命名格式是固定的,若需換圖請提供檔名一樣的圖片 若空白則不顯示圖片</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{211A4DC8-3963-4D37-A48A-0E8BAFE01BE8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>migle:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+產品頁,產品名下方副標題,若為空白則不會顯示</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{38D34A88-A1D3-49FB-8724-39DB720BE390}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>migle:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+產品頁,副標題下方產品特色簡述,若為空白則不會顯示</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{660A82E7-3ABC-4FDE-BE21-F93B08B5C50F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>migle:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+產品頁中間區塊Materials內容 ,若為空白會顯示n/a</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{1E5DEC35-7981-4988-90F3-2AAF649146F3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>migle:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+產品頁中間區塊Feature內容 ,若為空白會顯示n/a</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{2BD96C4D-759B-46BB-9B89-B8BE45CD84D7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>migle:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+產品頁中間區塊的對照表內容</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{8A51B778-680D-416E-A778-CA237306F661}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>migle:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+產品頁中間區塊Notes內容 ,若為空白會顯示n/a</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="135">
   <si>
@@ -52,10 +350,6 @@
   </si>
   <si>
     <t>short_description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>material</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -188,9 +482,6 @@
   </si>
   <si>
     <t>BC01_1.jpg</t>
-  </si>
-  <si>
-    <t>BC01-3.jpg</t>
   </si>
   <si>
     <t>BC01_2.jpg</t>
@@ -645,12 +936,18 @@
   <si>
     <t>50 lbs and 120 lbs</t>
   </si>
+  <si>
+    <t>BC01_3.jpg</t>
+  </si>
+  <si>
+    <t>material</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -665,6 +962,19 @@
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -711,6 +1021,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -975,12 +1289,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1000,7 +1314,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1024,451 +1338,452 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
       <c r="K1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="310.5" customHeight="1">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
       <c r="I2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="267.75">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="252">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="409.5">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" t="s">
         <v>42</v>
       </c>
-      <c r="E5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" t="s">
-        <v>44</v>
-      </c>
       <c r="I5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="409.5">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="409.5">
       <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" t="s">
         <v>59</v>
       </c>
-      <c r="B7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" t="s">
-        <v>61</v>
-      </c>
       <c r="I7" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="393.75">
       <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" t="s">
         <v>62</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
         <v>63</v>
       </c>
-      <c r="C8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" t="s">
-        <v>65</v>
-      </c>
       <c r="I8" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="393.75">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="409.5">
       <c r="A10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" t="s">
         <v>72</v>
       </c>
-      <c r="C10" t="s">
-        <v>74</v>
-      </c>
       <c r="D10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="252">
       <c r="A11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" t="s">
         <v>83</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>85</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>87</v>
       </c>
-      <c r="D11" t="s">
+      <c r="I11" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="236.25">
       <c r="A12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" t="s">
         <v>84</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>86</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>88</v>
       </c>
-      <c r="D12" t="s">
-        <v>90</v>
-      </c>
       <c r="I12" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="110.25">
       <c r="A13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" t="s">
+        <v>101</v>
+      </c>
+      <c r="E13" t="s">
+        <v>102</v>
+      </c>
+      <c r="G13" t="s">
+        <v>109</v>
+      </c>
+      <c r="H13" t="s">
+        <v>107</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="B13" t="s">
-        <v>96</v>
-      </c>
-      <c r="C13" t="s">
-        <v>102</v>
-      </c>
-      <c r="D13" t="s">
-        <v>103</v>
-      </c>
-      <c r="E13" t="s">
-        <v>104</v>
-      </c>
-      <c r="G13" t="s">
-        <v>111</v>
-      </c>
-      <c r="H13" t="s">
-        <v>109</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="94.5">
       <c r="A14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" t="s">
         <v>105</v>
       </c>
-      <c r="D14" t="s">
+      <c r="G14" t="s">
+        <v>108</v>
+      </c>
+      <c r="H14" t="s">
+        <v>107</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="E14" t="s">
-        <v>107</v>
-      </c>
-      <c r="G14" t="s">
-        <v>110</v>
-      </c>
-      <c r="H14" t="s">
-        <v>109</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="157.5">
       <c r="A15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" t="s">
+        <v>112</v>
+      </c>
+      <c r="G15" t="s">
+        <v>115</v>
+      </c>
+      <c r="H15" t="s">
+        <v>107</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B15" t="s">
-        <v>112</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="J15" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="G15" t="s">
-        <v>117</v>
-      </c>
-      <c r="H15" t="s">
-        <v>109</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="173.25">
       <c r="A16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" t="s">
         <v>118</v>
       </c>
-      <c r="B16" t="s">
+      <c r="G16" t="s">
+        <v>123</v>
+      </c>
+      <c r="H16" t="s">
+        <v>107</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="C16" t="s">
-        <v>120</v>
-      </c>
-      <c r="G16" t="s">
-        <v>125</v>
-      </c>
-      <c r="H16" t="s">
-        <v>109</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="173.25">
       <c r="A17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" t="s">
         <v>119</v>
       </c>
-      <c r="B17" t="s">
-        <v>123</v>
-      </c>
-      <c r="C17" t="s">
-        <v>121</v>
-      </c>
       <c r="G17" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="78.75">
       <c r="A18" t="s">
+        <v>126</v>
+      </c>
+      <c r="B18" t="s">
+        <v>127</v>
+      </c>
+      <c r="C18" t="s">
         <v>128</v>
       </c>
-      <c r="B18" t="s">
+      <c r="H18" t="s">
+        <v>132</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C18" t="s">
+      <c r="J18" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="H18" t="s">
-        <v>134</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>